--- a/data/data_private/data_member/data_final_NORMAL_merged.xlsx
+++ b/data/data_private/data_member/data_final_NORMAL_merged.xlsx
@@ -4542,7 +4542,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4552,13 +4552,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -4616,13 +4610,13 @@
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -4945,8 +4939,8 @@
     <col min="1" max="1" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="8" width="37.005" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="8" width="88.7192857142857" customWidth="1" bestFit="1"/>
     <col min="6" max="6" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
     <col min="7" max="7" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
     <col min="8" max="8" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
@@ -6416,7 +6410,7 @@
         <v>192</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="72.75">
       <c r="A32" s="4">
         <v>31704</v>
       </c>
@@ -6463,7 +6457,7 @@
         <v>196</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="73.5">
       <c r="A33" s="4">
         <v>31821</v>
       </c>
@@ -6510,7 +6504,7 @@
         <v>202</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="96">
       <c r="A34" s="4">
         <v>24144</v>
       </c>
@@ -6557,7 +6551,7 @@
         <v>209</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="96">
       <c r="A35" s="4">
         <v>24146</v>
       </c>
@@ -6604,7 +6598,7 @@
         <v>215</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="107.25">
       <c r="A36" s="4">
         <v>24145</v>
       </c>
@@ -6651,7 +6645,7 @@
         <v>221</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="320.25">
       <c r="A37" s="4">
         <v>25068</v>
       </c>
@@ -6698,7 +6692,7 @@
         <v>227</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="276">
       <c r="A38" s="4">
         <v>25089</v>
       </c>
@@ -6745,7 +6739,7 @@
         <v>233</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="253.5">
       <c r="A39" s="4">
         <v>25083</v>
       </c>
@@ -6792,7 +6786,7 @@
         <v>239</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="273">
       <c r="A40" s="4">
         <v>25090</v>
       </c>
@@ -6839,7 +6833,7 @@
         <v>245</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="253.5">
       <c r="A41" s="4">
         <v>25002</v>
       </c>
@@ -6886,7 +6880,7 @@
         <v>251</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="320.25">
       <c r="A42" s="4">
         <v>25065</v>
       </c>
@@ -6933,7 +6927,7 @@
         <v>257</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="331.5">
       <c r="A43" s="4">
         <v>25088</v>
       </c>
@@ -6980,7 +6974,7 @@
         <v>263</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="185.25">
       <c r="A44" s="4">
         <v>25053</v>
       </c>
@@ -7027,7 +7021,7 @@
         <v>269</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="297.75">
       <c r="A45" s="4">
         <v>25005</v>
       </c>
@@ -7074,7 +7068,7 @@
         <v>275</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="331.5">
       <c r="A46" s="4">
         <v>25056</v>
       </c>
@@ -7121,7 +7115,7 @@
         <v>281</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="297.75">
       <c r="A47" s="4">
         <v>25087</v>
       </c>
@@ -7168,7 +7162,7 @@
         <v>287</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="242.25">
       <c r="A48" s="4">
         <v>30801</v>
       </c>
@@ -7215,7 +7209,7 @@
         <v>293</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="195.75">
       <c r="A49" s="4">
         <v>20645</v>
       </c>
@@ -7262,7 +7256,7 @@
         <v>300</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="196.5">
       <c r="A50" s="4">
         <v>31122</v>
       </c>
@@ -7309,7 +7303,7 @@
         <v>306</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="117.75">
       <c r="A51" s="4">
         <v>31121</v>
       </c>
@@ -7356,7 +7350,7 @@
         <v>312</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="197.25">
       <c r="A52" s="4">
         <v>23456</v>
       </c>
@@ -7403,7 +7397,7 @@
         <v>319</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="231">
       <c r="A53" s="4">
         <v>23463</v>
       </c>
@@ -7450,7 +7444,7 @@
         <v>325</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="163.5">
       <c r="A54" s="4">
         <v>24150</v>
       </c>
@@ -7497,7 +7491,7 @@
         <v>331</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="208.5">
       <c r="A55" s="4">
         <v>24152</v>
       </c>
@@ -7544,7 +7538,7 @@
         <v>337</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="197.25">
       <c r="A56" s="4">
         <v>23981</v>
       </c>
@@ -7591,7 +7585,7 @@
         <v>343</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="174.75">
       <c r="A57" s="4">
         <v>24149</v>
       </c>
@@ -7638,7 +7632,7 @@
         <v>349</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="106.5">
       <c r="A58" s="4">
         <v>41718</v>
       </c>
@@ -7685,7 +7679,7 @@
         <v>356</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="62.25">
       <c r="A59" s="4">
         <v>41709</v>
       </c>
@@ -7732,7 +7726,7 @@
         <v>362</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="174.75">
       <c r="A60" s="4">
         <v>25027</v>
       </c>
@@ -7779,7 +7773,7 @@
         <v>368</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="219.75">
       <c r="A61" s="4">
         <v>41717</v>
       </c>
@@ -7826,7 +7820,7 @@
         <v>374</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="129">
       <c r="A62" s="4">
         <v>41720</v>
       </c>
@@ -7873,7 +7867,7 @@
         <v>380</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="174.75">
       <c r="A63" s="4">
         <v>25023</v>
       </c>
